--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1453.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value1453.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.50504462235196</v>
+        <v>1.174200534820557</v>
       </c>
       <c r="B1">
-        <v>1.657321460790488</v>
+        <v>2.329868316650391</v>
       </c>
       <c r="C1">
-        <v>1.959815599672621</v>
+        <v>4.490339756011963</v>
       </c>
       <c r="D1">
-        <v>3.375179992220751</v>
+        <v>3.519518613815308</v>
       </c>
       <c r="E1">
-        <v>0.721111702983919</v>
+        <v>1.216854572296143</v>
       </c>
     </row>
   </sheetData>
